--- a/statistics/HistoricalDistanceData/historical_distance/Q16958645-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q16958645-en.xlsx
@@ -31,21 +31,21 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Trees, power lines downed by storm</t>
+  </si>
+  <si>
     <t>Storm leaves damage in its wake</t>
   </si>
   <si>
-    <t>Trees, power lines downed by storm</t>
-  </si>
-  <si>
     <t>Storms of June 16, 2009</t>
   </si>
   <si>
+    <t>2009-06-17T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2009-06-16T00:00:00UTC</t>
   </si>
   <si>
-    <t>2009-06-17T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -55,10 +55,10 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://glasgowdailytimes.com/local/x211927760/Trees-power-lines-downed-by-storm</t>
+  </si>
+  <si>
     <t>http://glasgowdailytimes.com/local/x211927706/Storm-leaves-damage-in-its-wake</t>
-  </si>
-  <si>
-    <t>http://glasgowdailytimes.com/local/x211927760/Trees-power-lines-downed-by-storm</t>
   </si>
   <si>
     <t>http://www.crh.noaa.gov/lmk/?n=june_16_2009</t>
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
